--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/66_Sakarya_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/66_Sakarya_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6A4FEF-8343-467C-B1DB-530A35861CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4941884C-8B84-4898-B1AF-2CDAAB805EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{EAA180F3-B408-4846-87AA-566FA9518935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{9FAFBA42-33E5-4CBE-BD69-17EFD09C4D45}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -968,13 +968,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{222F54D3-F21D-46E6-8161-546A02B4F96A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{570470D8-591C-4ACF-A21B-D6C7949F0F3A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E8317919-2CDE-4EBA-94A0-E6E2B81BB3A2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FB2659F0-DA19-43DB-8F06-D709650ABD00}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0BCF616B-5ED5-4787-925E-4831A9908DA4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FF035DB5-6D67-41F5-90C2-97B7A8D90BD2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DFDA2F9A-9CCD-4EE9-B74A-AE72C3A3B69C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{42993D3D-6216-4172-ADEC-6E41E63ADA67}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2706C723-2F4E-49E7-92A5-0C2406DBC84A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B8F941FC-3D10-4CA4-804F-7E139C8818B7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A8215801-A1D5-4591-B962-3FE80C382EC4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C4AF881B-72AE-4A11-8C12-2E2181FCBFBA}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{FCF6F5AE-70D6-4635-8369-790A71E9389F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D1DBED71-F243-41AF-AAD1-D6A15913B0F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE33C56D-3784-4C13-99EE-4128BBEBE56F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99308EAB-5768-4C89-94DB-230E0F1E0333}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2633,18 +2633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D225FCD1-DE53-47D7-BA61-0B7F980D390B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEB604EC-D320-4373-8E9A-87C78E609D0B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2231078-77E5-4058-96C2-586EE877DAFF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81E5407D-9424-4F95-B650-4D44F841C053}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{462578EF-45C7-43FA-A8BD-10F9612040C9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{310742EA-DBCB-4257-8FAE-9E02182EE678}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59E289EA-51DF-4CEE-9EFD-F1F9C80961C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E1F339C-1F39-4412-B19E-8617907290A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3203A921-CA29-48FF-B201-A8C5EF3EDD57}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7DC24125-4820-4150-BA40-498047A3E92D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D4C4448-8B65-428A-9E0A-1A5434871EA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2B0853E-8D7D-48A7-8608-BAEE526EF528}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BE403E4-FEAA-443E-AED2-37808661B747}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74D5783A-19B1-4987-B268-83D4107192B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E39DCA8-A770-4AE3-AF03-FC44ECE06ABA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7BDF7D74-CBA4-4004-8953-4E4EF3EC32BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8416D98D-0D68-42B8-B00A-0C50064BBF90}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FD9B17BA-80E9-404F-994F-E0A57C0F43E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51327CBC-3594-4CBE-B6A8-2981F5E4F7B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48FC0E00-4691-4AB8-993B-F5CAC77B9F07}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{916AD96A-E34F-4B9B-B4C1-4EB42B648B85}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40F5095E-4BC6-4A63-9D7C-323CD9F0187F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E838A07-989A-43E8-AE33-FCC62FDF8EF9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{318F93A6-D08B-4081-9585-DCA3D1501DEA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867FE0B-EBCA-4E42-AA85-44EF212A8908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2430AF0E-A33D-463E-92D6-55C93F78297B}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3921,18 +3921,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFA1BFAD-3AE2-4DF6-ABBF-35CD4F9ED089}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3869D7A-8E46-471B-8C56-2691BFA09C7C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{365BC4D0-9A78-4EA9-83A7-0A86AB58D80E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA70E69A-529D-4EFA-8248-E8C15FD58D81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{689DFFEB-3D64-4BA2-AB82-B940C831CD68}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDDCED1F-BC51-4077-BED1-B4439F5730A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8C09F96-4253-4B26-AA09-29C823A3C45A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AE9B030-C84B-439E-9A1B-AE283947672E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7495DBA6-6DA2-44C9-B63B-23691DD99F5A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B7DC1B6F-929B-4E5B-825A-E5132D259711}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DED2EC2-BA87-4664-9C94-6ECB38D9C56E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5CF41F7-CA3D-4813-ACDA-5ABA30B379D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E706920-F644-41B3-819C-5FA423DE7B99}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FE2F525-54B1-4252-8629-D38859161493}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C225D398-B42D-4ED2-A09D-738FA7714541}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{254C032C-93C5-47CD-9313-074579C8385D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC7E843B-BB76-4F2B-9EFC-920098397DDD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C10FDB5-534B-475F-BA82-F087294AA9F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F10D8D9-45FE-42FE-8ECE-AE1960AED80F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A0BEFE7-BD16-4BFD-8737-0C891C6C7ADB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BADBCF6B-B1CD-445C-8900-8E27DC974B5B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CE79615D-C7F4-4906-BDDD-01011F5A92FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EC342B9-9883-460D-872E-B0E996617B02}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F00C264-D339-451A-8050-C534397D8557}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3945,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21417A34-2D59-40BB-A5A1-6CFCD4494387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1754DA-15FB-406F-A4C4-EB6EA81CE347}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5209,18 +5209,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62AB5523-B38C-4B08-A780-4FFBA29B2E30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F61C8FBB-05B6-4E57-B2FD-21AA07801583}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A5AE24B6-688D-4ECC-822A-3700794628DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4FE8E904-EF93-474D-A1C8-88D700325257}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AE410B3-216C-4F01-B540-548BDA04EC93}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8A22A99C-2A98-4340-89C7-AFCD34EDF8D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{684A8665-5ECF-4350-9804-16186598B064}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E91961E9-F82C-405D-814F-7B01B1ADE331}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F78BB33-33DD-45CE-A782-3FB1CEF8157E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{21054C86-2FD8-4548-A40A-086605E7C936}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D9582A9-5F64-4C94-AF2A-4EBF1AD370FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1CA8FB97-4A05-480E-AF74-68D7D384554A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{667BD73C-96CD-447B-A4A7-0CBB90D288DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2953B2A-E64B-4695-805C-A414C8A9163B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6EAFBB6E-F5CA-4502-85D0-7DC1A755607D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F9AD426-20CE-498D-B39E-E065FDC57A88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66A88713-056F-481A-BA63-ADF40813B22F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C9BF47A-28B5-4492-AE18-E6CD954C2703}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30EBF54C-11CD-4E26-B2EC-5AF9ACC4D7C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB3E9542-09AF-4637-A048-22FCEBF30BB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E47220E1-583C-48D9-AD80-65E79007A81B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{23834E03-1DC4-4619-A14A-64F58405281F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1E3428A-935E-49D8-A22C-D18D2BC48821}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7A19063-4819-4519-988F-E66B3EAF4CF1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5233,7 +5233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF891D0-FF79-49C3-88D6-9B2A2D5E265C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B15FDE-FD68-4F16-9DC3-94E41430024D}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6489,18 +6489,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98F0AE23-9F5E-4988-AEA1-C47B5652C48C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5EECEA6-9A51-44A1-98B9-D5BB1416B91F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C9DD813D-0474-426D-805E-73394552D09F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64BDA675-F000-4122-990F-DE11730DD43F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D3A038B-D9B7-4246-8F03-EDD5E1875F52}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3216BBDC-63A7-4B70-BB5C-DE3E7D861904}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47F2F29E-0A47-4D19-A599-3C6DC5B81F72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C87256C-F527-4E9F-9CBE-7324D7482B14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5510FC8F-FE5A-4404-9451-77FA8CAA832B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8667859-0559-4500-B1F0-04500ED86EC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A87BE2C8-E868-4AC3-A2EA-E59F76F04A10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1EADD16-4FE4-4B70-9C4F-11DAF3C9DCB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E19304F-4AFE-45A6-AB06-F0F5B11D35CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1AECC38-03AA-45B6-ABEC-795C3CB2ACC2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C872D56-47FC-4866-804D-0807746E2FD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2292EAE-468F-4428-B3CB-91C6986235B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3388A2AE-BDBA-4E01-9224-6C3DFB551FE7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D4EA414-F263-4B54-A60A-B680BA6681C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F439B36E-3BB2-4816-9392-4BC94329CC0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F94DA5D1-C2F3-4D27-9A18-2D2E0AA0BBF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E8A9643-5550-4E9D-9C2E-5A85CD365BE1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F372CC8A-FC2D-4D6D-BBAC-3BCDC189A5CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1464AA8-B8B6-42E6-9527-732C64F6D1E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB23090C-1CBA-46B4-8B5E-0BC8A47B4A70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD443BE3-65A5-43A3-9F0D-BC0814C8DFCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D51A6A-2C0A-4A00-984F-B3D5A456A51A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7804,18 +7804,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{509F4707-7F29-49B2-B6D6-8DCD45FB6E3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F0FFC0F-C8E6-4DA9-83D5-81E6FAF4E6DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC647A5E-FC32-4E74-AD6D-00AB682A35BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8CE166F-24D5-4115-A783-C6BA66F9549D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C44ECBE-FD9B-41EF-83CF-25E9BE954D34}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C95C24A-0745-4A9A-B1B2-2AF7359EE7E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{230F8CB1-799E-494E-9412-1D7BD7C493C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEA2E81A-F1AC-437C-BAEA-741912D3FAB2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06711E70-F5C3-49D4-BC3C-41E580402DA7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3ECD1DB6-3317-4EDD-8EEB-55A717AA8060}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6563B5C3-9255-43D5-BD9D-8688DFDD7CF5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD88CF39-92A0-40CB-BD07-1531B2DE9D97}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AA3FC80-B33A-49EA-80BD-436135F36F98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{461A3400-FCFD-44A3-9394-F7C82EF6C09D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24558F35-6DDF-419A-96B0-D50ECA093660}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2353DA16-1BDB-4485-B919-9B7D07427EA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0657C97D-13D0-49A3-8229-64D39AAEF0CD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AA5ABB80-4BC8-408B-B263-DC348705F2D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A28B6F0-AD3D-4164-8BCA-E0D9183C111B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{284BD5C1-F4F2-4468-943E-5E6039109F6B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DFF9031-2546-4601-BBB0-E9D236CD4FCA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E36AE6BC-CAD0-4382-9700-BD646766B41C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02616A9A-FAA2-4024-997A-476F0610B85B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{360CD895-EC21-4ECA-B1CD-FD68A0D7EC3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7828,7 +7828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF81C4-67AC-4D64-9379-925FC6AC2E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE464FF-1FC5-43D8-AE2F-799442078B7C}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9120,18 +9120,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E0B5DC2-A40A-40AC-A7C9-4776606B7223}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F55531F-1763-4011-9648-07AB7DCAB7EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{847D1A95-2324-4B1C-8BFA-319A3F5D3DA1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B14111DD-F8D1-4D38-8560-0F6DEC36F5CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3A16F49-E667-4E30-AA9E-7AC6167CEA09}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{10532FAB-7352-445B-B39F-3C810E0FE203}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9703E174-DE2E-46ED-B72E-6201E4A22E8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00C3E74E-8CEF-4036-A63A-F9AD70ABC67A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F36103B8-D678-4BCD-8F04-6883921E4A9A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D4BFB124-686E-4834-B0AD-55E5050ED309}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DEE3D2F-B788-4B5A-96D6-01E5D534F8EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{520CA1F4-C5B4-493A-970A-7887D67F54A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47B2F204-0890-45A4-83C1-526DC3A906D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06D080C4-88BF-4F1F-A9B1-A1EF10AF643D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0BDA57E8-E2C3-4801-8D57-0EA7A74DD44C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0437F45-1A35-4B19-A962-730EDE293843}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{743F8CE2-7B50-45B1-8F87-651B2DE37DFA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4EB2E60E-5A0E-4AAE-9091-AB2577890881}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A5913CC-A05A-4231-81E5-7CFAFFD5D86C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBA61EB8-59A3-44E2-9A40-4445801983F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{212726D5-11F3-403E-913A-3D3AEAAF4EB2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A1D8E1B8-17C7-4C3D-BB92-A3C553C0ED98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A2D4D20-5649-4AB5-85A5-11880B23C566}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11AFA399-0CDF-4F6B-B451-B7C358FC39E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9144,7 +9144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E079527D-74F8-4D8E-8416-0DE8D1C0F391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D335FF-94BB-408B-BA96-E5F59A284CD4}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10436,18 +10436,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45041D6A-10BB-4927-8A4A-4292D43FBCF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13379B15-50C8-406A-9431-A22F578CDBAF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D7BC2E7-ADBE-41EB-A1B3-3613216FB04C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4DCFD9C-C93F-421D-B3BB-F1004538FD39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0977384-2A1E-46C3-AA82-6844A4316477}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE30C98F-1105-442E-A2F4-1987A6240501}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D4388A7-2F3F-4CC9-A187-BEA0D44670BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0B52624-7CC4-47BF-9BDE-6B696B922297}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE9ABD0B-DEA9-437E-B48B-FD2C529B3781}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED7A60F4-6358-4439-99FF-7BC5165CBE60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93A37B9A-9566-4251-B642-96842931C2FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F644371-141E-4A16-B50D-049DD5520B01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B826ECA-3DD3-484C-AACE-CBCD6D71F9E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FE48536-AEF6-49AB-99B1-6662DE35B3E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F985BA7-DF82-4D44-A472-D97CD768E2BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6D430850-050E-4F9C-8361-9F66434BE9BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{124D28CF-0EC3-46A0-AB60-BAF61F9191BF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{281358FD-67F1-4D42-9A2F-1B786CCF1C1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{565FC921-2D4E-4232-BCE7-8237AA26654C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A845E7ED-B43E-4013-98F0-7513EB133DB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24186F3A-2147-4081-84A8-F3B78740FDC4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FECF634E-E413-4A1A-A514-723D42EB4D62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93046108-5A4B-47AD-A258-655612935B88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3E8F802-3655-407F-B685-8D65D17CC3D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10460,7 +10460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139D1A1D-18E1-4F00-939A-AE982CF16695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC3870A-120A-48EF-BA78-09FC1405E02D}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11752,18 +11752,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5948492E-5667-4EF3-9681-99A709DDCE34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5452952B-EB03-4E3B-A80B-2DDB4784DF80}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E478220F-71A6-491D-A139-5D07EBCB8AE9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ACF67B71-2732-4C29-8D56-980D8FF17AD9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E3E589F-8EAA-41C1-8433-00F80D1EF7A8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0467E6BF-3425-46EA-A8D8-E00058934EED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3D1DA50-D788-4EC9-AE28-709B0C9FBC0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44A14472-6C13-4235-8668-24CF0D171771}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B0546B7-FC66-4585-AE06-51242E232066}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52D3B22A-5838-4E47-870C-75DC51A32965}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{255002E2-A823-4889-AD36-9013BB24F32A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A867240-75A9-44A2-AD96-169CAAA9DE08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C2AA893-E784-461F-B122-16188900C98D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87589E8C-DCA3-4F91-B1C0-7DFEA9650E4E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BE93350-89B2-497F-A283-261BB4EB50AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C132943E-4D76-4A36-926A-79518DD1A00D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F127043-54AD-4995-9E35-D1FC847495D2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F9D3944-1A19-4385-B1C8-E6CCCC700A1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBB387BB-F6EA-4DE4-AD36-C6605B3F0EA8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78C399C0-E716-457F-976E-6035F1EA0222}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AAF248E-207C-4784-85CE-7E6D5D2D7225}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6FCC3479-2B5E-4734-8254-21D35AC638B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D094E5CC-5185-4915-BF9D-05052DC9656D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D61EC684-6815-4FEE-BBA0-6E1112977A19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11776,7 +11776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B269-E96F-4436-A74C-5DD46A96A36B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE846311-7E5B-49AB-B1FE-1A32B7E5F2A6}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13060,18 +13060,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D827ACDB-3364-43C7-9CC5-03B36EDDE96B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{983951E6-F6AD-47F8-B732-C8E00C947028}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BF3703A-1023-4C90-AB2A-C117BC5765E2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AF76366-E43A-4DD0-B590-5B546FC530E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42E8FF51-98A3-4348-A27F-EE4BD3E1A727}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1A4E8DD-0D5D-4D8C-8A4A-61708AB3BDB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3172DFBD-0419-42D2-AC6E-A0CAC5B5BE0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98FA999F-40FE-49B5-B8A7-CAF4336717B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91B36DB2-EB38-4544-8526-A3EE850E9F58}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F38D8E59-6ECD-4882-8C1A-BE4157FA311D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDD82D50-9105-4FB7-9F2A-3F362ACD4769}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9AA718D-810D-478D-BEEB-FC0D108B3246}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55D75F56-2B9F-40AE-9838-FD419C741BFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41BC8C4E-BA87-4302-94BB-8968BE852F1A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{669001E6-1161-4B23-ABCC-4408D53DCA2F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C01BC05A-64C2-427A-B2FF-3F53A6FE8377}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B1BDE40-CDE4-4FCD-BBE1-7D9AAF767879}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC5BA533-51F1-4CD5-92F8-414A7250A79B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64876789-955E-489F-B366-90E060D84C73}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A72155AD-B544-4F9B-947C-D4CE6AA6B888}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D32AB1F-B7A7-4C8D-ABB9-166C8C76399E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{81E77342-8B39-488A-91C8-E46C83FD5AB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBD3B4C0-399D-4DED-92E1-F9571BA06087}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0FF03B0C-A26F-4156-9F3C-B2F521AA0731}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13084,7 +13084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA880C3-F08A-474B-9E42-BD40FD2B6005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C48DED-96BC-4C73-97FB-75BF1E16FA76}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14348,18 +14348,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFCA09A1-A6BD-46AB-8DF8-44F8A4A8FBF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{140A9F95-8E03-4842-B00F-29D790FA08F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46BE7002-B003-40C4-8149-DF2223221FAF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5EB2D2F-6846-49E1-8ADB-7F2A12149C79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D452267-8351-4D92-8F95-25269F0A8449}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8C70452-FE90-492F-9DA2-5CCBEE42C4C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4F504B4-5ADB-45F4-9A3C-FAB72383AF04}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75FBE105-F427-47AB-8DAE-CB012BC8D469}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8840D74E-4C3E-49F5-857E-2DEB944C70EF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{80C7EA20-C462-4BDD-94C8-2C92855AC2DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{863EEE49-2294-4DF8-84D7-F43357042CE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{149B1DAA-F96D-404E-85C2-31824DC4BC35}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74A70744-9F29-4515-8D6C-49A9C07547F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B5B453A-6BD1-437F-8C8E-755E84C92405}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DFC341A8-E674-49DD-B2A7-D12393186C0C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{326E8278-D32D-4A1B-BD4E-82B3568E7AE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CB28DBA-CF92-42D2-BB6E-E63D1341364F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09F87385-3453-4D5F-BDF9-00FA92C35647}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42434869-F0ED-43CC-BED7-6F95EBBF09AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17333853-50BE-4F49-BB8A-BB2A40281AA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18908668-760D-4679-8763-ABDE8DE212C6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{047D1491-2B00-4EC5-812C-5325420E1C7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8490D7D0-CEE4-418D-8F38-F0432033A4D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE42729E-E990-4B49-9E46-79B3B6C0E876}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14372,7 +14372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E537DBAD-74EB-40AA-82E2-E3A7CF27D471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BA8239-C276-4FEB-84CB-C839382C2051}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15636,18 +15636,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA09FBC5-6620-43C0-AC21-35AD5CC06694}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAE532F0-D334-4CC9-9A21-6D5294F774C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F538BAA1-DCA5-456A-A8C0-6B55E1FC5E39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{503390C0-5301-4BAB-9F61-C332A93C5ED9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B41BB44-0A5E-4251-AE2F-50F2C8C6703D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6223795E-DBC7-4CD2-8277-C3F15410F1CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F39FEAF3-2D5B-4BF7-9C74-EA605DA7C3C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67FA201F-ED30-493C-8DFE-8AD2AAB31C69}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{780A758C-BF0C-4E1B-A369-CC230C4117F7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DD2B981B-DD80-432A-AF2D-AFD70E706C7C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C43FDF38-4EAF-490D-89E2-A6B576108B3C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DD3A9DC-01D8-4166-A403-9E0E3B77584A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1265B2E-A212-404E-81B2-D30783EA671D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FEE0DDE-3D80-4161-9CE2-DC0D05B54023}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7FA5D474-D0D2-4F36-B471-198D3DD9AEBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{778D1502-F7B4-47B3-B300-5DBD7FD81FC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0561AF64-AD33-4BCF-9CD3-BBA7323A4766}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{724429B6-B8BD-4880-A782-9E407B38EB20}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74123C92-A8D0-4296-B483-6659FB003DD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C3ECED5-3ED7-49BA-A9EC-012D87134732}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B07504E-DF97-4BE3-8DAB-9815E65DE7F6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D93EB4A8-2297-485A-B8DB-00F81E1E05F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51A73DF1-9EDE-4702-A773-875DAA92035B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D00C2F6D-3314-4AF6-8241-FB71F6E009D8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15660,7 +15660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D509C0-15F4-43A8-9871-39CE58E3147D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E5632A-0D60-43EA-B76D-B4A60BCCDD21}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16924,18 +16924,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94AB1C19-C405-4ADA-8640-47F760CBF068}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4795432-A8A3-4F04-942E-21F0091B7399}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{149C2FD9-CA3A-4D8F-90FC-17585BABB6D1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{290632DE-BED0-4BAE-BEAB-574FAD37D5D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38472DEE-DD41-457C-A38D-1DEBA6A41547}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68E0F039-AA12-488C-9D0D-F0C403373B57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E49309C-6C0E-432A-B390-84A0B30C76F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{959D17FA-5BE9-4689-A5A6-88716AE4B15B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC2ACFE7-77CA-45EF-A2E9-82D18861D903}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2F4C877-CFDA-479B-9432-CAD78413FB2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93E9BCB4-EBFB-4299-BEC1-6BAF347CE503}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC7E4EEF-88FC-434D-9198-7262B443BFD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50213DCC-6D41-4F75-B527-E9F641524AEB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F7D1DD9-E21A-46A7-970E-77E830BFC66A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7561429B-6014-4593-8E04-E5AFA315A1DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69F514F5-9FBE-4929-8665-C2D5268C1BCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B35417A3-5CC7-46C6-9348-6E2FC2ECBE00}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A097A00B-8C98-4FA2-8C64-B5A48042FA94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26A0B5B8-D492-489A-8305-E3747D1A7367}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BD56445-48AF-406B-9D79-73BDCE9968A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0AD93DCA-18CE-4ED0-A7D9-F6F3B900CE8A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A3F9729A-DCA8-4B23-872D-CC3E0CA23AB6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC8B985E-D38D-4439-9BCF-E954A588BF2C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6DAAD6AD-2FCA-4DED-BF1B-0197039C89C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
